--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -978,7 +978,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>STORE RESET-</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -1886,7 +1886,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2267,9 +2267,21 @@
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2350,11 +2362,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2407,7 +2415,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2462,7 +2470,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MIKE DAY PIGGLY WIGGLY #170, WATERLOO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2505,7 +2513,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>810 N MONROE ST</t>
+          <t>MIKE DAY PIGGLY WIGGLY #170, WATERLOO</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2548,7 +2556,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nBV5CGccWtE2</t>
+          <t>810 N MONROE ST</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2591,7 +2599,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL office</t>
+          <t>https://goo.gl/maps/nBV5CGccWtE2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2646,7 +2654,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>6:30 am meet for Sarah, Lori &amp; Savannah at Hwy N PnR</t>
+          <t>*IL Meet is 5:45 am at IL office</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2703,7 +2711,11 @@
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>6:30 am meet for Sarah, Lori &amp; Savannah at Hwy N PnR</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2745,21 +2757,9 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2827,18 +2827,17 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -2908,15 +2907,20 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2983,12 +2987,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3050,19 +3054,15 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store w/ Sarah</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3133,15 +3133,19 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store w/ Sarah</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3213,19 +3217,15 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>@ Store w/ Sarah</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3296,9 +3296,21 @@
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store w/ Sarah</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -3472,7 +3472,11 @@
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2:30 PM START</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3520,7 +3524,11 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>401K PHONE CALL MTG WITH BADGER 401K REP CHRIS BROCK</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3563,7 +3571,11 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">THIS MTG IS TO PROVIDE INFORMATION TO HELP YOU DECIDE IF YOU WANT TO JOIN </t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3598,7 +3610,11 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">THE BADGER 401 K PROGRAM TO HELP YOU GET FREE </t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3633,7 +3649,11 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>MONEY. THERE IS NO OBLIGATION TO JOIN</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3706,8 +3726,16 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3394,10 +3394,15 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -3445,7 +3450,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3509,15 +3514,10 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4052,41 +4052,6 @@
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -1178,7 +1178,11 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Ace Side</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1471,7 +1475,11 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Ace Side</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1546,7 +1554,11 @@
           <t>Eva</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Ace Side</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1694,7 +1706,11 @@
           <t>Joseph</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Ace Side</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1844,7 +1860,8 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Silver Van</t>
+          <t>Ace Side
+Silver Van</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -1999,7 +2016,8 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>Supv Ace,
+Optima</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2301,9 +2301,21 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -2947,14 +2959,10 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
@@ -3020,11 +3028,7 @@
           <t>4)</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
@@ -3503,7 +3507,11 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3550,7 +3558,11 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3597,7 +3609,11 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3636,7 +3652,11 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>1440 HORICON ST</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3675,7 +3695,11 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3756,9 +3780,21 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
@@ -3799,9 +3835,21 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
@@ -3842,9 +3890,21 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
@@ -3881,9 +3941,21 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3920,9 +3992,21 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -3955,9 +4039,21 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -3990,9 +4086,21 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -4025,9 +4133,21 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4060,9 +4180,21 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -4070,6 +4202,162 @@
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2690,11 +2690,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>6:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
@@ -2748,9 +2744,22 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>@ Store,
+Red Camry, Equip</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -2793,18 +2802,18 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>@ Store,
-Red Camry, Equip</t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2873,20 +2882,15 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2954,14 +2958,10 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
@@ -3025,10 +3025,14 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
@@ -3088,15 +3092,19 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store, Until 11</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -3171,17 +3179,18 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3251,18 +3260,17 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3334,21 +3342,9 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3447,7 +3443,11 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3509,7 +3509,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3560,7 +3560,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3611,7 +3611,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+          <t>1440 HORICON ST</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3654,7 +3654,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>1440 HORICON ST</t>
+          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3695,11 +3695,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3729,9 +3725,21 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
@@ -3782,17 +3790,17 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -3837,12 +3845,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3892,12 +3900,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3943,12 +3951,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3994,12 +4002,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -4041,12 +4049,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4088,12 +4096,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4135,12 +4143,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4182,12 +4190,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4221,12 +4229,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4260,12 +4268,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4299,12 +4307,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4319,45 +4327,6 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -1270,7 +1270,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1419,10 +1419,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>w/ Sarah</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1495,14 +1499,10 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>w/ Sarah</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,7 +2961,11 @@
           <t>4)</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
@@ -3030,10 +3034,14 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store, Until 11</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -3097,12 +3105,13 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store, Until 11</t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3184,13 +3193,12 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3258,21 +3266,9 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -3391,7 +3387,11 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3445,7 +3445,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3509,7 +3509,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3560,7 +3560,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+          <t>1440 HORICON ST</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3611,7 +3611,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>1440 HORICON ST</t>
+          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3646,17 +3646,13 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE BADGER 401 K PROGRAM TO HELP YOU GET FREE </t>
+          <t>THE BADGER 401 K PROGRAM TO HELP YOU GET FREE MONEY</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3689,14 +3685,26 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>MONEY. THERE IS NO OBLIGATION TO JOIN</t>
+          <t>THERE IS NO OBLIGATION TO JOIN</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3727,17 +3735,17 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3790,12 +3798,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3845,12 +3853,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3900,12 +3908,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3951,12 +3959,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -4002,12 +4010,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -4049,12 +4057,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4096,12 +4104,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4143,12 +4151,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4190,12 +4198,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4229,12 +4237,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4268,12 +4276,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4288,45 +4296,6 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1612,8 +1612,8 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van,
+          <t>Driver,
+Camry 3,
 Supv Rx</t>
         </is>
       </c>
@@ -1685,14 +1685,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1768,7 +1766,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1839,7 +1837,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1919,7 +1917,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1995,7 +1993,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2075,7 +2073,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2146,7 +2144,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2233,7 +2231,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2301,21 +2299,9 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -2813,7 +2799,7 @@
       <c r="S42" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Gray Van</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -3105,15 +3091,10 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -3193,12 +3174,13 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3266,9 +3248,21 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -3387,11 +3381,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3445,7 +3435,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3509,7 +3499,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3560,7 +3550,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>1440 HORICON ST</t>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3611,7 +3601,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
+          <t>1440 HORICON ST</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3652,7 +3642,11 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3690,21 +3684,9 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3735,17 +3717,17 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3798,12 +3780,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3853,12 +3835,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3908,12 +3890,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3959,12 +3941,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -4010,12 +3992,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -4057,12 +4039,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4104,12 +4086,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4151,12 +4133,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4198,12 +4180,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4237,12 +4219,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4276,12 +4258,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4296,6 +4278,45 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -1389,7 +1389,7 @@
       <c r="S20" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Silver Van</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>

--- a/06-08-25 to 06-14-25 Madison Schedule.xlsx
+++ b/06-08-25 to 06-14-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4278,45 +4278,6 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
